--- a/JPADSandBox_v2/out/ATR-72/PERFORMANCE/XCG_0.25/Performance_0.25.xlsx
+++ b/JPADSandBox_v2/out/ATR-72/PERFORMANCE/XCG_0.25/Performance_0.25.xlsx
@@ -1039,7 +1039,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="n">
-        <v>721.2847944701539</v>
+        <v>721.4829260019274</v>
       </c>
     </row>
     <row r="3">
@@ -1050,7 +1050,7 @@
         <v>4</v>
       </c>
       <c r="C3" t="n">
-        <v>162.30515687469568</v>
+        <v>159.07632971891286</v>
       </c>
     </row>
     <row r="4">
@@ -1061,7 +1061,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="n">
-        <v>222.45503933789678</v>
+        <v>224.889880352184</v>
       </c>
     </row>
     <row r="5">
@@ -1072,7 +1072,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>1106.0449906827462</v>
+        <v>1105.449136073024</v>
       </c>
     </row>
     <row r="6">
@@ -1083,7 +1083,7 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>1271.9517392851576</v>
+        <v>1271.2665064839775</v>
       </c>
     </row>
     <row r="7">
@@ -1094,7 +1094,7 @@
         <v>4</v>
       </c>
       <c r="C7" t="n">
-        <v>1174.1340792097735</v>
+        <v>1173.9850763294785</v>
       </c>
     </row>
     <row r="8">
@@ -1110,7 +1110,7 @@
         <v>11</v>
       </c>
       <c r="C9" t="n">
-        <v>2366.419929364022</v>
+        <v>2367.0699671979246</v>
       </c>
     </row>
     <row r="10">
@@ -1121,7 +1121,7 @@
         <v>11</v>
       </c>
       <c r="C10" t="n">
-        <v>532.4972338408652</v>
+        <v>521.903968894071</v>
       </c>
     </row>
     <row r="11">
@@ -1132,7 +1132,7 @@
         <v>11</v>
       </c>
       <c r="C11" t="n">
-        <v>729.8393679064854</v>
+        <v>737.8276914441733</v>
       </c>
     </row>
     <row r="12">
@@ -1143,7 +1143,7 @@
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>3628.756531111372</v>
+        <v>3626.8016275361683</v>
       </c>
     </row>
     <row r="13">
@@ -1154,7 +1154,7 @@
         <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>4173.070010778078</v>
+        <v>4170.821871666592</v>
       </c>
     </row>
     <row r="14">
@@ -1165,7 +1165,7 @@
         <v>11</v>
       </c>
       <c r="C14" t="n">
-        <v>3852.145929165925</v>
+        <v>3851.65707457178</v>
       </c>
     </row>
     <row r="15">
@@ -1181,7 +1181,7 @@
         <v>13</v>
       </c>
       <c r="C16" t="n">
-        <v>53.01860406053929</v>
+        <v>53.01800363321622</v>
       </c>
     </row>
     <row r="17">
@@ -1192,7 +1192,7 @@
         <v>13</v>
       </c>
       <c r="C17" t="n">
-        <v>55.056556408815034</v>
+        <v>55.05593290199933</v>
       </c>
     </row>
     <row r="18">
@@ -1203,7 +1203,7 @@
         <v>13</v>
       </c>
       <c r="C18" t="n">
-        <v>55.66953426356625</v>
+        <v>55.668903814877034</v>
       </c>
     </row>
     <row r="19">
@@ -1214,7 +1214,7 @@
         <v>13</v>
       </c>
       <c r="C19" t="n">
-        <v>46.64589411558282</v>
+        <v>46.989968786521864</v>
       </c>
     </row>
     <row r="20">
@@ -1225,7 +1225,7 @@
         <v>13</v>
       </c>
       <c r="C20" t="n">
-        <v>60.27015529876316</v>
+        <v>60.19332075590685</v>
       </c>
     </row>
     <row r="21">
@@ -1236,7 +1236,7 @@
         <v>13</v>
       </c>
       <c r="C21" t="n">
-        <v>63.473713606377984</v>
+        <v>63.459282095533055</v>
       </c>
     </row>
     <row r="22">
@@ -1252,7 +1252,7 @@
         <v>19</v>
       </c>
       <c r="C23" t="n">
-        <v>103.05992149996838</v>
+        <v>103.05875436262332</v>
       </c>
     </row>
     <row r="24">
@@ -1263,7 +1263,7 @@
         <v>19</v>
       </c>
       <c r="C24" t="n">
-        <v>107.0213839480206</v>
+        <v>107.02017194773089</v>
       </c>
     </row>
     <row r="25">
@@ -1274,7 +1274,7 @@
         <v>19</v>
       </c>
       <c r="C25" t="n">
-        <v>108.2129175749668</v>
+        <v>108.21169208075449</v>
       </c>
     </row>
     <row r="26">
@@ -1285,7 +1285,7 @@
         <v>19</v>
       </c>
       <c r="C26" t="n">
-        <v>90.67236437154328</v>
+        <v>91.34119202563646</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         <v>19</v>
       </c>
       <c r="C27" t="n">
-        <v>117.1558094360407</v>
+        <v>117.00645503308029</v>
       </c>
     </row>
     <row r="28">
@@ -1307,7 +1307,7 @@
         <v>19</v>
       </c>
       <c r="C28" t="n">
-        <v>123.38302860851013</v>
+        <v>123.35497599563661</v>
       </c>
     </row>
     <row r="29">
@@ -1323,7 +1323,7 @@
         <v>21</v>
       </c>
       <c r="C30" t="n">
-        <v>1.0384384384384904</v>
+        <v>1.0384384384384162</v>
       </c>
     </row>
     <row r="31">
@@ -1345,7 +1345,7 @@
         <v>10</v>
       </c>
       <c r="C32" t="n">
-        <v>0.8798023814870758</v>
+        <v>0.8863021156285533</v>
       </c>
     </row>
     <row r="33">
@@ -1356,7 +1356,7 @@
         <v>21</v>
       </c>
       <c r="C33" t="n">
-        <v>1.1367737111664364</v>
+        <v>1.1353373690252502</v>
       </c>
     </row>
     <row r="34">
@@ -1367,7 +1367,7 @@
         <v>21</v>
       </c>
       <c r="C34" t="n">
-        <v>1.1971969977538548</v>
+        <v>1.1969383557810027</v>
       </c>
     </row>
     <row r="35">
@@ -1383,7 +1383,7 @@
         <v>27</v>
       </c>
       <c r="C36" t="n">
-        <v>30.312764450896772</v>
+        <v>30.303465273664074</v>
       </c>
     </row>
   </sheetData>
@@ -1422,7 +1422,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="n">
-        <v>8836.728389969234</v>
+        <v>8836.907685084017</v>
       </c>
     </row>
     <row r="3">
@@ -1433,7 +1433,7 @@
         <v>11</v>
       </c>
       <c r="C3" t="n">
-        <v>28991.89104320615</v>
+        <v>28992.479281771706</v>
       </c>
     </row>
     <row r="4">
@@ -1444,7 +1444,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="n">
-        <v>8349.595133615669</v>
+        <v>8349.781419358627</v>
       </c>
     </row>
     <row r="5">
@@ -1455,7 +1455,7 @@
         <v>11</v>
       </c>
       <c r="C5" t="n">
-        <v>27393.68482157372</v>
+        <v>27394.295995271088</v>
       </c>
     </row>
     <row r="6">
@@ -1466,7 +1466,7 @@
         <v>31</v>
       </c>
       <c r="C6" t="n">
-        <v>14.829628849979564</v>
+        <v>14.828922108436796</v>
       </c>
     </row>
     <row r="7">
@@ -1477,7 +1477,7 @@
         <v>31</v>
       </c>
       <c r="C7" t="n">
-        <v>14.976449457493839</v>
+        <v>14.975737397363464</v>
       </c>
     </row>
     <row r="8">
@@ -1488,7 +1488,7 @@
         <v>34</v>
       </c>
       <c r="C8" t="n">
-        <v>220.4990446816845</v>
+        <v>220.48877666788042</v>
       </c>
     </row>
     <row r="9">
@@ -1504,7 +1504,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>5333.925555357919</v>
+        <v>5334.133953123612</v>
       </c>
     </row>
     <row r="11">
@@ -1515,7 +1515,7 @@
         <v>11</v>
       </c>
       <c r="C11" t="n">
-        <v>17499.75575904829</v>
+        <v>17500.439478752003</v>
       </c>
     </row>
     <row r="12">
@@ -1526,7 +1526,7 @@
         <v>4</v>
       </c>
       <c r="C12" t="n">
-        <v>4718.30940231981</v>
+        <v>4718.5242565688295</v>
       </c>
     </row>
     <row r="13">
@@ -1537,7 +1537,7 @@
         <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>15480.017724146355</v>
+        <v>15480.722626538156</v>
       </c>
     </row>
   </sheetData>
@@ -1576,7 +1576,7 @@
         <v>38</v>
       </c>
       <c r="C2" t="n">
-        <v>17082.13250121387</v>
+        <v>17082.132501213877</v>
       </c>
     </row>
     <row r="3">
@@ -1587,7 +1587,7 @@
         <v>39</v>
       </c>
       <c r="C3" t="n">
-        <v>3840.216153487103</v>
+        <v>3840.2161534871047</v>
       </c>
     </row>
     <row r="4">
@@ -1598,7 +1598,7 @@
         <v>38</v>
       </c>
       <c r="C4" t="n">
-        <v>15570.063259841438</v>
+        <v>15569.912850981691</v>
       </c>
     </row>
     <row r="5">
@@ -1609,7 +1609,7 @@
         <v>39</v>
       </c>
       <c r="C5" t="n">
-        <v>3500.289465440586</v>
+        <v>3500.255652183794</v>
       </c>
     </row>
     <row r="6">
@@ -1647,7 +1647,7 @@
         <v>42</v>
       </c>
       <c r="C9" t="n">
-        <v>2091346.3272336135</v>
+        <v>2091326.12455292</v>
       </c>
     </row>
     <row r="10">
@@ -1658,7 +1658,7 @@
         <v>43</v>
       </c>
       <c r="C10" t="n">
-        <v>2843.438709275761</v>
+        <v>2843.4112412836994</v>
       </c>
     </row>
     <row r="11">
@@ -1674,7 +1674,7 @@
         <v>13</v>
       </c>
       <c r="C12" t="n">
-        <v>60.41175192592456</v>
+        <v>60.41106777236878</v>
       </c>
     </row>
     <row r="13">
@@ -1685,7 +1685,7 @@
         <v>13</v>
       </c>
       <c r="C13" t="n">
-        <v>108.66087558966967</v>
+        <v>108.66036974611657</v>
       </c>
     </row>
     <row r="14">
@@ -1696,7 +1696,7 @@
         <v>19</v>
       </c>
       <c r="C14" t="n">
-        <v>117.43105125989655</v>
+        <v>117.42972137177516</v>
       </c>
     </row>
     <row r="15">
@@ -1707,7 +1707,7 @@
         <v>19</v>
       </c>
       <c r="C15" t="n">
-        <v>211.21984455875315</v>
+        <v>211.2188612775484</v>
       </c>
     </row>
     <row r="16">
@@ -1723,7 +1723,7 @@
         <v>13</v>
       </c>
       <c r="C17" t="n">
-        <v>78.68558957136054</v>
+        <v>78.68469846947758</v>
       </c>
     </row>
     <row r="18">
@@ -1734,7 +1734,7 @@
         <v>13</v>
       </c>
       <c r="C18" t="n">
-        <v>141.5286512668697</v>
+        <v>141.5279924101983</v>
       </c>
     </row>
     <row r="19">
@@ -1745,7 +1745,7 @@
         <v>19</v>
       </c>
       <c r="C19" t="n">
-        <v>152.95254992273107</v>
+        <v>152.9508177592437</v>
       </c>
     </row>
     <row r="20">
@@ -1756,7 +1756,7 @@
         <v>19</v>
       </c>
       <c r="C20" t="n">
-        <v>275.1096892876517</v>
+        <v>275.1084085727397</v>
       </c>
     </row>
     <row r="21">
@@ -1772,7 +1772,7 @@
         <v>21</v>
       </c>
       <c r="C22" t="n">
-        <v>0.2460421535224413</v>
+        <v>0.24603936713388547</v>
       </c>
     </row>
     <row r="23">
@@ -1783,7 +1783,7 @@
         <v>21</v>
       </c>
       <c r="C23" t="n">
-        <v>0.4425456472401532</v>
+        <v>0.44254358705862806</v>
       </c>
     </row>
     <row r="24">
@@ -1799,7 +1799,7 @@
         <v>21</v>
       </c>
       <c r="C25" t="n">
-        <v>13.164629874376217</v>
+        <v>13.164460199872973</v>
       </c>
     </row>
     <row r="26">
@@ -1876,7 +1876,7 @@
         <v>34</v>
       </c>
       <c r="C5" t="n">
-        <v>78.42998371950299</v>
+        <v>78.43030526465895</v>
       </c>
     </row>
   </sheetData>
@@ -1915,7 +1915,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="n">
-        <v>354.62866103344</v>
+        <v>354.6205418123135</v>
       </c>
     </row>
     <row r="3">
@@ -1926,7 +1926,7 @@
         <v>4</v>
       </c>
       <c r="C3" t="n">
-        <v>84.03070573131671</v>
+        <v>84.0288024731341</v>
       </c>
     </row>
     <row r="4">
@@ -1937,7 +1937,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="n">
-        <v>248.80998028733052</v>
+        <v>248.81093126388737</v>
       </c>
     </row>
     <row r="5">
@@ -1948,7 +1948,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>687.4693470520872</v>
+        <v>687.4602755493349</v>
       </c>
     </row>
     <row r="6">
@@ -1959,7 +1959,7 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>1145.782245086812</v>
+        <v>1145.7671259155582</v>
       </c>
     </row>
     <row r="7">
@@ -1975,7 +1975,7 @@
         <v>11</v>
       </c>
       <c r="C8" t="n">
-        <v>1163.4798590335956</v>
+        <v>1163.4532211690073</v>
       </c>
     </row>
     <row r="9">
@@ -1986,7 +1986,7 @@
         <v>11</v>
       </c>
       <c r="C9" t="n">
-        <v>275.69129176941175</v>
+        <v>275.68504748403575</v>
       </c>
     </row>
     <row r="10">
@@ -1997,7 +1997,7 @@
         <v>11</v>
       </c>
       <c r="C10" t="n">
-        <v>816.3057096041027</v>
+        <v>816.3088296059295</v>
       </c>
     </row>
     <row r="11">
@@ -2008,7 +2008,7 @@
         <v>11</v>
       </c>
       <c r="C11" t="n">
-        <v>2255.47686040711</v>
+        <v>2255.447098258973</v>
       </c>
     </row>
     <row r="12">
@@ -2019,7 +2019,7 @@
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>3759.128100678517</v>
+        <v>3759.078497098288</v>
       </c>
     </row>
     <row r="13">
@@ -2035,7 +2035,7 @@
         <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>45.62355765015825</v>
+        <v>45.623040970568624</v>
       </c>
     </row>
     <row r="15">
@@ -2046,7 +2046,7 @@
         <v>13</v>
       </c>
       <c r="C15" t="n">
-        <v>52.46709129768198</v>
+        <v>52.4664971161539</v>
       </c>
     </row>
     <row r="16">
@@ -2057,7 +2057,7 @@
         <v>13</v>
       </c>
       <c r="C16" t="n">
-        <v>56.116975909694645</v>
+        <v>56.1163403937994</v>
       </c>
     </row>
     <row r="17">
@@ -2068,7 +2068,7 @@
         <v>13</v>
       </c>
       <c r="C17" t="n">
-        <v>59.310624945205724</v>
+        <v>59.3099532617392</v>
       </c>
     </row>
     <row r="18">
@@ -2084,7 +2084,7 @@
         <v>19</v>
       </c>
       <c r="C19" t="n">
-        <v>88.68510126380653</v>
+        <v>88.68409691903187</v>
       </c>
     </row>
     <row r="20">
@@ -2095,7 +2095,7 @@
         <v>19</v>
       </c>
       <c r="C20" t="n">
-        <v>101.9878664533775</v>
+        <v>101.98671145688664</v>
       </c>
     </row>
     <row r="21">
@@ -2106,7 +2106,7 @@
         <v>19</v>
       </c>
       <c r="C21" t="n">
-        <v>109.08267455448203</v>
+        <v>109.08143921040919</v>
       </c>
     </row>
     <row r="22">
@@ -2117,7 +2117,7 @@
         <v>19</v>
       </c>
       <c r="C22" t="n">
-        <v>115.29063164294848</v>
+        <v>115.28932599474143</v>
       </c>
     </row>
     <row r="23">
@@ -2133,7 +2133,7 @@
         <v>21</v>
       </c>
       <c r="C24" t="n">
-        <v>1.1499999999999995</v>
+        <v>1.1499999999999997</v>
       </c>
     </row>
     <row r="25">
@@ -2144,7 +2144,7 @@
         <v>21</v>
       </c>
       <c r="C25" t="n">
-        <v>1.2299999999999995</v>
+        <v>1.2299999999999998</v>
       </c>
     </row>
     <row r="26">
@@ -2171,7 +2171,7 @@
         <v>27</v>
       </c>
       <c r="C28" t="n">
-        <v>10.400384358265708</v>
+        <v>10.400988080442204</v>
       </c>
     </row>
   </sheetData>
@@ -2221,7 +2221,7 @@
         <v>31</v>
       </c>
       <c r="C3" t="n">
-        <v>114.04247082367141</v>
+        <v>114.04240097412796</v>
       </c>
     </row>
     <row r="4">
@@ -2232,7 +2232,7 @@
         <v>34</v>
       </c>
       <c r="C4" t="n">
-        <v>19646.074522150368</v>
+        <v>19645.632372141263</v>
       </c>
     </row>
     <row r="5">
@@ -2243,7 +2243,7 @@
         <v>34</v>
       </c>
       <c r="C5" t="n">
-        <v>18594.95612681189</v>
+        <v>18594.527591374408</v>
       </c>
     </row>
     <row r="6">
@@ -2254,7 +2254,7 @@
         <v>34</v>
       </c>
       <c r="C6" t="n">
-        <v>1106.455363814052</v>
+        <v>1106.4417347802364</v>
       </c>
     </row>
     <row r="7">
@@ -2265,7 +2265,7 @@
         <v>34</v>
       </c>
       <c r="C7" t="n">
-        <v>1051.1325956233495</v>
+        <v>1051.1196480412248</v>
       </c>
     </row>
     <row r="8">
@@ -2314,7 +2314,7 @@
         <v>53</v>
       </c>
       <c r="C12" t="n">
-        <v>0.48225839078672256</v>
+        <v>0.48221818286555707</v>
       </c>
     </row>
     <row r="13">
@@ -2325,7 +2325,7 @@
         <v>53</v>
       </c>
       <c r="C13" t="n">
-        <v>39.46169879977406</v>
+        <v>39.4600986348804</v>
       </c>
     </row>
     <row r="14">
@@ -2336,7 +2336,7 @@
         <v>53</v>
       </c>
       <c r="C14" t="n">
-        <v>72.52553768952015</v>
+        <v>72.52773313107312</v>
       </c>
     </row>
     <row r="15">
@@ -2358,7 +2358,7 @@
         <v>53</v>
       </c>
       <c r="C16" t="n">
-        <v>15.603319969173157</v>
+        <v>15.602769209154914</v>
       </c>
     </row>
     <row r="17">
@@ -2369,7 +2369,7 @@
         <v>53</v>
       </c>
       <c r="C17" t="n">
-        <v>86.99999999999997</v>
+        <v>86.99999999999994</v>
       </c>
     </row>
     <row r="18">
@@ -2380,7 +2380,7 @@
         <v>53</v>
       </c>
       <c r="C18" t="n">
-        <v>22.98988348682525</v>
+        <v>22.989883486825306</v>
       </c>
     </row>
     <row r="19">
@@ -2402,7 +2402,7 @@
         <v>53</v>
       </c>
       <c r="C20" t="n">
-        <v>3.5867091019896122</v>
+        <v>3.586709101989584</v>
       </c>
     </row>
     <row r="21">
@@ -2413,7 +2413,7 @@
         <v>53</v>
       </c>
       <c r="C21" t="n">
-        <v>0.3479569814473109</v>
+        <v>0.34795265688165955</v>
       </c>
     </row>
     <row r="22">
@@ -2429,7 +2429,7 @@
         <v>31</v>
       </c>
       <c r="C23" t="n">
-        <v>0.4246421579132409</v>
+        <v>0.42461852301490666</v>
       </c>
     </row>
     <row r="24">
@@ -2440,7 +2440,7 @@
         <v>31</v>
       </c>
       <c r="C24" t="n">
-        <v>12.08802320043381</v>
+        <v>12.087542608238927</v>
       </c>
     </row>
     <row r="25">
@@ -2451,7 +2451,7 @@
         <v>31</v>
       </c>
       <c r="C25" t="n">
-        <v>15.61552672542154</v>
+        <v>15.616066230802748</v>
       </c>
     </row>
     <row r="26">
@@ -2473,7 +2473,7 @@
         <v>31</v>
       </c>
       <c r="C27" t="n">
-        <v>5.067770694331831</v>
+        <v>5.067594658904429</v>
       </c>
     </row>
     <row r="28">
@@ -2484,7 +2484,7 @@
         <v>31</v>
       </c>
       <c r="C28" t="n">
-        <v>18.71656108568606</v>
+        <v>18.716631817728526</v>
       </c>
     </row>
     <row r="29">
@@ -2495,7 +2495,7 @@
         <v>31</v>
       </c>
       <c r="C29" t="n">
-        <v>5.666666666666657</v>
+        <v>5.666666666666654</v>
       </c>
     </row>
     <row r="30">
@@ -2528,7 +2528,7 @@
         <v>31</v>
       </c>
       <c r="C32" t="n">
-        <v>0.16328029321829973</v>
+        <v>0.16328046877178082</v>
       </c>
     </row>
     <row r="33">
@@ -2544,7 +2544,7 @@
         <v>34</v>
       </c>
       <c r="C34" t="n">
-        <v>7.863411398203488</v>
+        <v>7.862846495383669</v>
       </c>
     </row>
     <row r="35">
@@ -2555,7 +2555,7 @@
         <v>34</v>
       </c>
       <c r="C35" t="n">
-        <v>178.65463960620758</v>
+        <v>178.64764545571978</v>
       </c>
     </row>
     <row r="36">
@@ -2566,7 +2566,7 @@
         <v>34</v>
       </c>
       <c r="C36" t="n">
-        <v>192.98900396131137</v>
+        <v>192.99249303359517</v>
       </c>
     </row>
     <row r="37">
@@ -2577,7 +2577,7 @@
         <v>34</v>
       </c>
       <c r="C37" t="n">
-        <v>72.64437720763667</v>
+        <v>72.6446964040571</v>
       </c>
     </row>
     <row r="38">
@@ -2588,7 +2588,7 @@
         <v>34</v>
       </c>
       <c r="C38" t="n">
-        <v>80.84204903128813</v>
+        <v>80.8392481046867</v>
       </c>
     </row>
     <row r="39">
@@ -2599,7 +2599,7 @@
         <v>34</v>
       </c>
       <c r="C39" t="n">
-        <v>276.0314707014169</v>
+        <v>276.0286492436228</v>
       </c>
     </row>
     <row r="40">
@@ -2610,7 +2610,7 @@
         <v>34</v>
       </c>
       <c r="C40" t="n">
-        <v>39.71199073113536</v>
+        <v>39.71214798416696</v>
       </c>
     </row>
     <row r="41">
@@ -2621,7 +2621,7 @@
         <v>34</v>
       </c>
       <c r="C41" t="n">
-        <v>195.12898100354323</v>
+        <v>195.12518957716594</v>
       </c>
     </row>
     <row r="42">
@@ -2632,7 +2632,7 @@
         <v>34</v>
       </c>
       <c r="C42" t="n">
-        <v>6.83397920557843</v>
+        <v>6.834038500581414</v>
       </c>
     </row>
     <row r="43">
@@ -2643,7 +2643,7 @@
         <v>34</v>
       </c>
       <c r="C43" t="n">
-        <v>0.4326927770283646</v>
+        <v>0.4326932422451364</v>
       </c>
     </row>
     <row r="44">
@@ -2659,7 +2659,7 @@
         <v>34</v>
       </c>
       <c r="C45" t="n">
-        <v>19638.22531103706</v>
+        <v>19637.78439292027</v>
       </c>
     </row>
     <row r="46">
@@ -2670,7 +2670,7 @@
         <v>34</v>
       </c>
       <c r="C46" t="n">
-        <v>19459.570671430847</v>
+        <v>19459.13674746455</v>
       </c>
     </row>
     <row r="47">
@@ -2681,7 +2681,7 @@
         <v>34</v>
       </c>
       <c r="C47" t="n">
-        <v>19266.58166746953</v>
+        <v>19266.144254430954</v>
       </c>
     </row>
     <row r="48">
@@ -2692,7 +2692,7 @@
         <v>34</v>
       </c>
       <c r="C48" t="n">
-        <v>19193.937290261892</v>
+        <v>19193.49955802689</v>
       </c>
     </row>
     <row r="49">
@@ -2703,7 +2703,7 @@
         <v>34</v>
       </c>
       <c r="C49" t="n">
-        <v>19113.0952412306</v>
+        <v>19112.660309922205</v>
       </c>
     </row>
     <row r="50">
@@ -2714,7 +2714,7 @@
         <v>34</v>
       </c>
       <c r="C50" t="n">
-        <v>18837.06377052918</v>
+        <v>18836.631660678577</v>
       </c>
     </row>
     <row r="51">
@@ -2725,7 +2725,7 @@
         <v>34</v>
       </c>
       <c r="C51" t="n">
-        <v>18797.351779798046</v>
+        <v>18796.91951269441</v>
       </c>
     </row>
     <row r="52">
@@ -2736,7 +2736,7 @@
         <v>34</v>
       </c>
       <c r="C52" t="n">
-        <v>18602.222798794497</v>
+        <v>18601.79432311724</v>
       </c>
     </row>
     <row r="53">
@@ -2747,7 +2747,7 @@
         <v>34</v>
       </c>
       <c r="C53" t="n">
-        <v>18595.388819588916</v>
+        <v>18594.960284616653</v>
       </c>
     </row>
     <row r="54">
@@ -2758,7 +2758,7 @@
         <v>34</v>
       </c>
       <c r="C54" t="n">
-        <v>18594.95612681189</v>
+        <v>18594.527591374408</v>
       </c>
     </row>
     <row r="55">
@@ -2790,7 +2790,7 @@
         <v>19</v>
       </c>
       <c r="C58" t="n">
-        <v>119.27964371287538</v>
+        <v>119.27641147403867</v>
       </c>
     </row>
     <row r="59">
@@ -2812,7 +2812,7 @@
         <v>10</v>
       </c>
       <c r="C60" t="n">
-        <v>0.1803444719711971</v>
+        <v>0.18033958499812988</v>
       </c>
     </row>
     <row r="61">
@@ -2834,7 +2834,7 @@
         <v>10</v>
       </c>
       <c r="C62" t="n">
-        <v>1.7442224286399708</v>
+        <v>1.7437888666325212</v>
       </c>
     </row>
     <row r="63">
@@ -2856,7 +2856,7 @@
         <v>10</v>
       </c>
       <c r="C64" t="n">
-        <v>0.10506263590958115</v>
+        <v>0.10504079446195846</v>
       </c>
     </row>
     <row r="65">
@@ -2878,7 +2878,7 @@
         <v>10</v>
       </c>
       <c r="C66" t="n">
-        <v>16.601738701293208</v>
+        <v>16.601063192301456</v>
       </c>
     </row>
     <row r="67">
@@ -2889,7 +2889,7 @@
         <v>127</v>
       </c>
       <c r="C67" t="n">
-        <v>15377.590749912404</v>
+        <v>15377.590749545136</v>
       </c>
     </row>
     <row r="68">
@@ -2900,7 +2900,7 @@
         <v>127</v>
       </c>
       <c r="C68" t="n">
-        <v>10443.267712754485</v>
+        <v>10443.42972554235</v>
       </c>
     </row>
     <row r="69">
@@ -2922,7 +2922,7 @@
         <v>127</v>
       </c>
       <c r="C70" t="n">
-        <v>3323.024405950223</v>
+        <v>3322.15352845943</v>
       </c>
     </row>
     <row r="71">
@@ -2987,7 +2987,7 @@
         <v>10</v>
       </c>
       <c r="C77" t="n">
-        <v>0.6738854556166712</v>
+        <v>0.6738703255170155</v>
       </c>
     </row>
     <row r="78">
@@ -2998,7 +2998,7 @@
         <v>10</v>
       </c>
       <c r="C78" t="n">
-        <v>1.132822628959225</v>
+        <v>1.1327973684384984</v>
       </c>
     </row>
     <row r="79">
@@ -3009,7 +3009,7 @@
         <v>10</v>
       </c>
       <c r="C79" t="n">
-        <v>0.045115115434728965</v>
+        <v>0.045114453461333824</v>
       </c>
     </row>
     <row r="80">
@@ -3020,7 +3020,7 @@
         <v>10</v>
       </c>
       <c r="C80" t="n">
-        <v>0.07161050661925564</v>
+        <v>0.07160867340304061</v>
       </c>
     </row>
     <row r="81">
@@ -3031,7 +3031,7 @@
         <v>10</v>
       </c>
       <c r="C81" t="n">
-        <v>14.937021641707336</v>
+        <v>14.936905444162557</v>
       </c>
     </row>
     <row r="82">
@@ -3042,7 +3042,7 @@
         <v>10</v>
       </c>
       <c r="C82" t="n">
-        <v>15.819223776509572</v>
+        <v>15.819275998351314</v>
       </c>
     </row>
     <row r="83">
@@ -3053,7 +3053,7 @@
         <v>127</v>
       </c>
       <c r="C83" t="n">
-        <v>7251.752393790312</v>
+        <v>7251.752393790313</v>
       </c>
     </row>
     <row r="84">
@@ -3075,7 +3075,7 @@
         <v>127</v>
       </c>
       <c r="C85" t="n">
-        <v>2898.505764308062</v>
+        <v>2898.4631996907506</v>
       </c>
     </row>
     <row r="86">
@@ -3086,7 +3086,7 @@
         <v>127</v>
       </c>
       <c r="C86" t="n">
-        <v>2740.5514307761428</v>
+        <v>2740.4803856695266</v>
       </c>
     </row>
     <row r="87">
@@ -3107,7 +3107,7 @@
         <v>19</v>
       </c>
       <c r="C89" t="n">
-        <v>278.19302964821804</v>
+        <v>278.1918359071503</v>
       </c>
     </row>
     <row r="90">
@@ -3118,7 +3118,7 @@
         <v>19</v>
       </c>
       <c r="C90" t="n">
-        <v>279.14181320749356</v>
+        <v>279.140622764053</v>
       </c>
     </row>
     <row r="91">
@@ -3129,7 +3129,7 @@
         <v>10</v>
       </c>
       <c r="C91" t="n">
-        <v>0.4475055596894049</v>
+        <v>0.4475036394192769</v>
       </c>
     </row>
     <row r="92">
@@ -3140,7 +3140,7 @@
         <v>10</v>
       </c>
       <c r="C92" t="n">
-        <v>0.44903178742506955</v>
+        <v>0.44902987245955506</v>
       </c>
     </row>
     <row r="93">
@@ -3151,7 +3151,7 @@
         <v>10</v>
       </c>
       <c r="C93" t="n">
-        <v>0.4230262039432113</v>
+        <v>0.4230204013888224</v>
       </c>
     </row>
     <row r="94">
@@ -3162,7 +3162,7 @@
         <v>10</v>
       </c>
       <c r="C94" t="n">
-        <v>0.41390405572063405</v>
+        <v>0.41389810367497903</v>
       </c>
     </row>
     <row r="95">
@@ -3173,7 +3173,7 @@
         <v>10</v>
       </c>
       <c r="C95" t="n">
-        <v>0.03631906278171208</v>
+        <v>0.03631891181946828</v>
       </c>
     </row>
     <row r="96">
@@ -3184,7 +3184,7 @@
         <v>10</v>
       </c>
       <c r="C96" t="n">
-        <v>0.036081736274850874</v>
+        <v>0.036081581423365296</v>
       </c>
     </row>
     <row r="97">
@@ -3195,7 +3195,7 @@
         <v>10</v>
       </c>
       <c r="C97" t="n">
-        <v>11.647497802620054</v>
+        <v>11.647386449559534</v>
       </c>
     </row>
     <row r="98">
@@ -3206,7 +3206,7 @@
         <v>10</v>
       </c>
       <c r="C98" t="n">
-        <v>11.47128986719874</v>
+        <v>11.471174137809593</v>
       </c>
     </row>
     <row r="99">
@@ -3217,7 +3217,7 @@
         <v>127</v>
       </c>
       <c r="C99" t="n">
-        <v>3683.2812025988114</v>
+        <v>3683.2342827202647</v>
       </c>
     </row>
     <row r="100">
@@ -3228,7 +3228,7 @@
         <v>127</v>
       </c>
       <c r="C100" t="n">
-        <v>3684.215060516953</v>
+        <v>3684.167825414289</v>
       </c>
     </row>
     <row r="101">
@@ -3239,7 +3239,7 @@
         <v>127</v>
       </c>
       <c r="C101" t="n">
-        <v>3683.2812025988114</v>
+        <v>3683.2342827202647</v>
       </c>
     </row>
     <row r="102">
@@ -3250,7 +3250,7 @@
         <v>127</v>
       </c>
       <c r="C102" t="n">
-        <v>3684.215060516953</v>
+        <v>3684.167825414289</v>
       </c>
     </row>
     <row r="103">
@@ -3315,7 +3315,7 @@
         <v>10</v>
       </c>
       <c r="C109" t="n">
-        <v>0.3942394375563738</v>
+        <v>0.39423048705995034</v>
       </c>
     </row>
     <row r="110">
@@ -3326,7 +3326,7 @@
         <v>10</v>
       </c>
       <c r="C110" t="n">
-        <v>0.39164137281143746</v>
+        <v>0.391632419573616</v>
       </c>
     </row>
     <row r="111">
@@ -3337,7 +3337,7 @@
         <v>10</v>
       </c>
       <c r="C111" t="n">
-        <v>0.03557013143969454</v>
+        <v>0.0355698985789693</v>
       </c>
     </row>
     <row r="112">
@@ -3348,7 +3348,7 @@
         <v>10</v>
       </c>
       <c r="C112" t="n">
-        <v>0.03550253884906014</v>
+        <v>0.035502305917013276</v>
       </c>
     </row>
     <row r="113">
@@ -3359,7 +3359,7 @@
         <v>10</v>
       </c>
       <c r="C113" t="n">
-        <v>11.083440560931459</v>
+        <v>11.083261488213495</v>
       </c>
     </row>
     <row r="114">
@@ -3370,7 +3370,7 @@
         <v>10</v>
       </c>
       <c r="C114" t="n">
-        <v>11.031362418234643</v>
+        <v>11.031182607942641</v>
       </c>
     </row>
     <row r="115">
@@ -3381,7 +3381,7 @@
         <v>127</v>
       </c>
       <c r="C115" t="n">
-        <v>1618.2092482182616</v>
+        <v>1618.2092482182618</v>
       </c>
     </row>
     <row r="116">
@@ -3392,7 +3392,7 @@
         <v>127</v>
       </c>
       <c r="C116" t="n">
-        <v>1200.2118276470426</v>
+        <v>1200.2205629407022</v>
       </c>
     </row>
     <row r="117">
@@ -3403,7 +3403,7 @@
         <v>127</v>
       </c>
       <c r="C117" t="n">
-        <v>3827.219123379271</v>
+        <v>3827.194068396771</v>
       </c>
     </row>
     <row r="118">
@@ -3414,7 +3414,7 @@
         <v>127</v>
       </c>
       <c r="C118" t="n">
-        <v>3819.9464019974766</v>
+        <v>3819.9213393410255</v>
       </c>
     </row>
     <row r="119">
@@ -3479,7 +3479,7 @@
         <v>10</v>
       </c>
       <c r="C125" t="n">
-        <v>0.6586397391108633</v>
+        <v>0.6586247183342139</v>
       </c>
     </row>
     <row r="126">
@@ -3490,7 +3490,7 @@
         <v>10</v>
       </c>
       <c r="C126" t="n">
-        <v>0.8496722970088282</v>
+        <v>0.849652962145522</v>
       </c>
     </row>
     <row r="127">
@@ -3501,7 +3501,7 @@
         <v>10</v>
       </c>
       <c r="C127" t="n">
-        <v>0.04446738695417087</v>
+        <v>0.04446676306413804</v>
       </c>
     </row>
     <row r="128">
@@ -3512,7 +3512,7 @@
         <v>10</v>
       </c>
       <c r="C128" t="n">
-        <v>0.05367346676287607</v>
+        <v>0.053672406500553736</v>
       </c>
     </row>
     <row r="129">
@@ -3523,7 +3523,7 @@
         <v>10</v>
       </c>
       <c r="C129" t="n">
-        <v>14.81174820975365</v>
+        <v>14.811618227848644</v>
       </c>
     </row>
     <row r="130">
@@ -3534,7 +3534,7 @@
         <v>10</v>
       </c>
       <c r="C130" t="n">
-        <v>15.830397182328358</v>
+        <v>15.830349662759321</v>
       </c>
     </row>
     <row r="131">
@@ -3545,7 +3545,7 @@
         <v>127</v>
       </c>
       <c r="C131" t="n">
-        <v>7199.414490810043</v>
+        <v>7199.414490810046</v>
       </c>
     </row>
     <row r="132">
@@ -3556,7 +3556,7 @@
         <v>127</v>
       </c>
       <c r="C132" t="n">
-        <v>6274.189210039076</v>
+        <v>6274.189210039077</v>
       </c>
     </row>
     <row r="133">
@@ -3567,7 +3567,7 @@
         <v>127</v>
       </c>
       <c r="C133" t="n">
-        <v>2812.317510086748</v>
+        <v>2812.2752717938047</v>
       </c>
     </row>
     <row r="134">
@@ -3578,7 +3578,7 @@
         <v>127</v>
       </c>
       <c r="C134" t="n">
-        <v>2658.1180886190114</v>
+        <v>2658.0630392716757</v>
       </c>
     </row>
     <row r="135">
@@ -3599,7 +3599,7 @@
         <v>19</v>
       </c>
       <c r="C137" t="n">
-        <v>278.6435932503592</v>
+        <v>278.6425385263241</v>
       </c>
     </row>
     <row r="138">
@@ -3610,7 +3610,7 @@
         <v>19</v>
       </c>
       <c r="C138" t="n">
-        <v>278.6435932503592</v>
+        <v>278.6425385263241</v>
       </c>
     </row>
     <row r="139">
@@ -3621,7 +3621,7 @@
         <v>10</v>
       </c>
       <c r="C139" t="n">
-        <v>0.436509641511843</v>
+        <v>0.43650798923193573</v>
       </c>
     </row>
     <row r="140">
@@ -3632,7 +3632,7 @@
         <v>10</v>
       </c>
       <c r="C140" t="n">
-        <v>0.436509641511843</v>
+        <v>0.43650798923193573</v>
       </c>
     </row>
     <row r="141">
@@ -3643,7 +3643,7 @@
         <v>10</v>
       </c>
       <c r="C141" t="n">
-        <v>0.330530115821194</v>
+        <v>0.33052509659452645</v>
       </c>
     </row>
     <row r="142">
@@ -3654,7 +3654,7 @@
         <v>10</v>
       </c>
       <c r="C142" t="n">
-        <v>0.322191142442866</v>
+        <v>0.32218615256998107</v>
       </c>
     </row>
     <row r="143">
@@ -3665,7 +3665,7 @@
         <v>10</v>
       </c>
       <c r="C143" t="n">
-        <v>0.03409850063668209</v>
+        <v>0.03409839230860622</v>
       </c>
     </row>
     <row r="144">
@@ -3676,7 +3676,7 @@
         <v>10</v>
       </c>
       <c r="C144" t="n">
-        <v>0.03391852371978749</v>
+        <v>0.03391841602524324</v>
       </c>
     </row>
     <row r="145">
@@ -3687,7 +3687,7 @@
         <v>10</v>
       </c>
       <c r="C145" t="n">
-        <v>9.693391487883199</v>
+        <v>9.69327508473483</v>
       </c>
     </row>
     <row r="146">
@@ -3698,7 +3698,7 @@
         <v>10</v>
       </c>
       <c r="C146" t="n">
-        <v>9.498973042122854</v>
+        <v>9.498856088391603</v>
       </c>
     </row>
     <row r="147">
@@ -3709,7 +3709,7 @@
         <v>127</v>
       </c>
       <c r="C147" t="n">
-        <v>4346.998900749945</v>
+        <v>4346.95218227353</v>
       </c>
     </row>
     <row r="148">
@@ -3720,7 +3720,7 @@
         <v>127</v>
       </c>
       <c r="C148" t="n">
-        <v>4339.837318257977</v>
+        <v>4339.790790765092</v>
       </c>
     </row>
     <row r="149">
@@ -3731,7 +3731,7 @@
         <v>127</v>
       </c>
       <c r="C149" t="n">
-        <v>4346.998900749945</v>
+        <v>4346.95218227353</v>
       </c>
     </row>
     <row r="150">
@@ -3742,7 +3742,7 @@
         <v>127</v>
       </c>
       <c r="C150" t="n">
-        <v>4339.837318257977</v>
+        <v>4339.790790765092</v>
       </c>
     </row>
     <row r="151">
@@ -3807,7 +3807,7 @@
         <v>10</v>
       </c>
       <c r="C157" t="n">
-        <v>0.3853198397828585</v>
+        <v>0.3853110007992233</v>
       </c>
     </row>
     <row r="158">
@@ -3818,7 +3818,7 @@
         <v>10</v>
       </c>
       <c r="C158" t="n">
-        <v>0.383924652468271</v>
+        <v>0.3839158107931486</v>
       </c>
     </row>
     <row r="159">
@@ -3829,7 +3829,7 @@
         <v>10</v>
       </c>
       <c r="C159" t="n">
-        <v>0.035347997814822375</v>
+        <v>0.035347787450821996</v>
       </c>
     </row>
     <row r="160">
@@ -3840,7 +3840,7 @@
         <v>10</v>
       </c>
       <c r="C160" t="n">
-        <v>0.03531479295814533</v>
+        <v>0.03531458253008871</v>
       </c>
     </row>
     <row r="161">
@@ -3851,7 +3851,7 @@
         <v>10</v>
       </c>
       <c r="C161" t="n">
-        <v>10.900754317159187</v>
+        <v>10.900569132800506</v>
       </c>
     </row>
     <row r="162">
@@ -3862,7 +3862,7 @@
         <v>10</v>
       </c>
       <c r="C162" t="n">
-        <v>10.871496625317722</v>
+        <v>10.871311036058401</v>
       </c>
     </row>
     <row r="163">
@@ -3873,7 +3873,7 @@
         <v>127</v>
       </c>
       <c r="C163" t="n">
-        <v>1365.163981451315</v>
+        <v>1365.1816946194394</v>
       </c>
     </row>
     <row r="164">
@@ -3884,7 +3884,7 @@
         <v>127</v>
       </c>
       <c r="C164" t="n">
-        <v>1046.3078154406874</v>
+        <v>1046.3199026389811</v>
       </c>
     </row>
     <row r="165">
@@ -3895,7 +3895,7 @@
         <v>127</v>
       </c>
       <c r="C165" t="n">
-        <v>3803.318338573411</v>
+        <v>3803.295704158172</v>
       </c>
     </row>
     <row r="166">
@@ -3906,7 +3906,7 @@
         <v>127</v>
       </c>
       <c r="C166" t="n">
-        <v>3799.7456145681917</v>
+        <v>3799.72297326073</v>
       </c>
     </row>
     <row r="167">
@@ -3971,7 +3971,7 @@
         <v>10</v>
       </c>
       <c r="C173" t="n">
-        <v>0.4998804749382768</v>
+        <v>0.49986897960172105</v>
       </c>
     </row>
     <row r="174">
@@ -3982,7 +3982,7 @@
         <v>10</v>
       </c>
       <c r="C174" t="n">
-        <v>0.49598437571220366</v>
+        <v>0.495972956119849</v>
       </c>
     </row>
     <row r="175">
@@ -3993,7 +3993,7 @@
         <v>10</v>
       </c>
       <c r="C175" t="n">
-        <v>0.038589210934309524</v>
+        <v>0.038588835412086304</v>
       </c>
     </row>
     <row r="176">
@@ -4004,7 +4004,7 @@
         <v>10</v>
       </c>
       <c r="C176" t="n">
-        <v>0.03846193568350086</v>
+        <v>0.03846156263564023</v>
       </c>
     </row>
     <row r="177">
@@ -4015,7 +4015,7 @@
         <v>10</v>
       </c>
       <c r="C177" t="n">
-        <v>12.953892107025048</v>
+        <v>12.953720273329587</v>
       </c>
     </row>
     <row r="178">
@@ -4026,7 +4026,7 @@
         <v>10</v>
       </c>
       <c r="C178" t="n">
-        <v>12.895460587153122</v>
+        <v>12.895288754083483</v>
       </c>
     </row>
     <row r="179">
@@ -4037,7 +4037,7 @@
         <v>127</v>
       </c>
       <c r="C179" t="n">
-        <v>3199.1208991248373</v>
+        <v>3199.089767599644</v>
       </c>
     </row>
     <row r="180">
@@ -4048,7 +4048,7 @@
         <v>127</v>
       </c>
       <c r="C180" t="n">
-        <v>3188.5695324359335</v>
+        <v>3188.538606040228</v>
       </c>
     </row>
     <row r="181">
@@ -4059,7 +4059,7 @@
         <v>127</v>
       </c>
       <c r="C181" t="n">
-        <v>3199.1208991248373</v>
+        <v>3199.089767599644</v>
       </c>
     </row>
     <row r="182">
@@ -4070,7 +4070,7 @@
         <v>127</v>
       </c>
       <c r="C182" t="n">
-        <v>3188.5695324359335</v>
+        <v>3188.538606040228</v>
       </c>
     </row>
     <row r="183">
@@ -4135,7 +4135,7 @@
         <v>10</v>
       </c>
       <c r="C189" t="n">
-        <v>0.3803271628385228</v>
+        <v>0.3803184025446354</v>
       </c>
     </row>
     <row r="190">
@@ -4146,7 +4146,7 @@
         <v>10</v>
       </c>
       <c r="C190" t="n">
-        <v>0.3800898762442073</v>
+        <v>0.3800811147283168</v>
       </c>
     </row>
     <row r="191">
@@ -4157,7 +4157,7 @@
         <v>10</v>
       </c>
       <c r="C191" t="n">
-        <v>0.03522917425569299</v>
+        <v>0.035228965764474686</v>
       </c>
     </row>
     <row r="192">
@@ -4168,7 +4168,7 @@
         <v>10</v>
       </c>
       <c r="C192" t="n">
-        <v>0.03522352693703316</v>
+        <v>0.03522331841673171</v>
       </c>
     </row>
     <row r="193">
@@ -4179,7 +4179,7 @@
         <v>10</v>
       </c>
       <c r="C193" t="n">
-        <v>10.795801232186486</v>
+        <v>10.795616456278516</v>
       </c>
     </row>
     <row r="194">
@@ -4190,7 +4190,7 @@
         <v>10</v>
       </c>
       <c r="C194" t="n">
-        <v>10.790795507890781</v>
+        <v>10.790610646944936</v>
       </c>
     </row>
     <row r="195">
@@ -4201,7 +4201,7 @@
         <v>127</v>
       </c>
       <c r="C195" t="n">
-        <v>1001.8742935611584</v>
+        <v>1001.905326106567</v>
       </c>
     </row>
     <row r="196">
@@ -4212,7 +4212,7 @@
         <v>127</v>
       </c>
       <c r="C196" t="n">
-        <v>935.7689004747244</v>
+        <v>935.798491332889</v>
       </c>
     </row>
     <row r="197">
@@ -4223,7 +4223,7 @@
         <v>127</v>
       </c>
       <c r="C197" t="n">
-        <v>3790.5333479253177</v>
+        <v>3790.510915014742</v>
       </c>
     </row>
     <row r="198">
@@ -4234,7 +4234,7 @@
         <v>127</v>
       </c>
       <c r="C198" t="n">
-        <v>3789.9257166038697</v>
+        <v>3789.903280564052</v>
       </c>
     </row>
     <row r="199">
@@ -4255,7 +4255,7 @@
         <v>19</v>
       </c>
       <c r="C201" t="n">
-        <v>108.85764975565732</v>
+        <v>108.85639542375989</v>
       </c>
     </row>
     <row r="202">
@@ -4277,7 +4277,7 @@
         <v>10</v>
       </c>
       <c r="C203" t="n">
-        <v>0.1645954617803025</v>
+        <v>0.1645935651994159</v>
       </c>
     </row>
     <row r="204">
@@ -4299,7 +4299,7 @@
         <v>10</v>
       </c>
       <c r="C205" t="n">
-        <v>1.5584919410019569</v>
+        <v>1.558491941001957</v>
       </c>
     </row>
     <row r="206">
@@ -4321,7 +4321,7 @@
         <v>10</v>
       </c>
       <c r="C207" t="n">
-        <v>0.20344099009247915</v>
+        <v>0.20344099009247918</v>
       </c>
     </row>
     <row r="208">
@@ -4365,7 +4365,7 @@
         <v>127</v>
       </c>
       <c r="C211" t="n">
-        <v>-622.9178870248677</v>
+        <v>-622.9075142672425</v>
       </c>
     </row>
     <row r="212">
@@ -4376,7 +4376,7 @@
         <v>127</v>
       </c>
       <c r="C212" t="n">
-        <v>49.50742544941821</v>
+        <v>49.50742544941822</v>
       </c>
     </row>
     <row r="213">
@@ -4387,7 +4387,7 @@
         <v>127</v>
       </c>
       <c r="C213" t="n">
-        <v>3145.8712058033548</v>
+        <v>3145.798682621067</v>
       </c>
     </row>
     <row r="214">
@@ -4469,7 +4469,7 @@
         <v>53</v>
       </c>
       <c r="C6" t="n">
-        <v>955.2047344976536</v>
+        <v>955.1976431223302</v>
       </c>
     </row>
     <row r="7">
@@ -4480,7 +4480,7 @@
         <v>34</v>
       </c>
       <c r="C7" t="n">
-        <v>21955.92750895614</v>
+        <v>21955.43021694456</v>
       </c>
     </row>
     <row r="8">
@@ -4513,7 +4513,7 @@
         <v>34</v>
       </c>
       <c r="C10" t="n">
-        <v>3036.308350619818</v>
+        <v>3036.239579583529</v>
       </c>
     </row>
     <row r="11">
@@ -4534,7 +4534,7 @@
         <v>53</v>
       </c>
       <c r="C13" t="n">
-        <v>1095.1697313954437</v>
+        <v>1095.1645947128331</v>
       </c>
     </row>
     <row r="14">
@@ -4545,7 +4545,7 @@
         <v>34</v>
       </c>
       <c r="C14" t="n">
-        <v>21955.92750895614</v>
+        <v>21955.43021694456</v>
       </c>
     </row>
     <row r="15">
@@ -4578,7 +4578,7 @@
         <v>34</v>
       </c>
       <c r="C17" t="n">
-        <v>3416.308350619818</v>
+        <v>3416.239579583529</v>
       </c>
     </row>
     <row r="18">
@@ -4599,7 +4599,7 @@
         <v>53</v>
       </c>
       <c r="C20" t="n">
-        <v>1661.8607491265252</v>
+        <v>1661.8888584810481</v>
       </c>
     </row>
     <row r="21">
@@ -4610,7 +4610,7 @@
         <v>34</v>
       </c>
       <c r="C21" t="n">
-        <v>21955.92750895614</v>
+        <v>21955.43021694456</v>
       </c>
     </row>
     <row r="22">
@@ -4621,7 +4621,7 @@
         <v>34</v>
       </c>
       <c r="C22" t="n">
-        <v>4921.816570678948</v>
+        <v>4921.747799642659</v>
       </c>
     </row>
     <row r="23">
@@ -4659,7 +4659,7 @@
         <v>53</v>
       </c>
       <c r="C26" t="n">
-        <v>1753.6004984657484</v>
+        <v>1753.6227281694548</v>
       </c>
     </row>
     <row r="27">
@@ -4670,7 +4670,7 @@
         <v>34</v>
       </c>
       <c r="C27" t="n">
-        <v>17034.11093827719</v>
+        <v>17033.682417301898</v>
       </c>
     </row>
     <row r="28">
@@ -4779,7 +4779,7 @@
         <v>13</v>
       </c>
       <c r="C7" t="n">
-        <v>61.981144293421366</v>
+        <v>61.98044236674471</v>
       </c>
     </row>
     <row r="8">
@@ -4790,7 +4790,7 @@
         <v>19</v>
       </c>
       <c r="C8" t="n">
-        <v>120.48170596993353</v>
+        <v>120.48034153362903</v>
       </c>
     </row>
     <row r="9">
@@ -4801,7 +4801,7 @@
         <v>13</v>
       </c>
       <c r="C9" t="n">
-        <v>75.91108859634986</v>
+        <v>75.91022891525253</v>
       </c>
     </row>
     <row r="10">
@@ -4812,7 +4812,7 @@
         <v>19</v>
       </c>
       <c r="C10" t="n">
-        <v>147.55935148318542</v>
+        <v>147.5576803968192</v>
       </c>
     </row>
     <row r="11">
@@ -4828,7 +4828,7 @@
         <v>13</v>
       </c>
       <c r="C12" t="n">
-        <v>98.0007939753796</v>
+        <v>97.99968413185528</v>
       </c>
     </row>
     <row r="13">
@@ -4839,7 +4839,7 @@
         <v>19</v>
       </c>
       <c r="C13" t="n">
-        <v>190.49830362384802</v>
+        <v>190.49614626062578</v>
       </c>
     </row>
     <row r="14">
@@ -5018,7 +5018,7 @@
         <v>13</v>
       </c>
       <c r="C32" t="n">
-        <v>75.91108859634984</v>
+        <v>75.91022891525253</v>
       </c>
     </row>
     <row r="33">
@@ -5029,7 +5029,7 @@
         <v>19</v>
       </c>
       <c r="C33" t="n">
-        <v>147.55935148318542</v>
+        <v>147.5576803968192</v>
       </c>
     </row>
     <row r="34">
@@ -5066,7 +5066,7 @@
         <v>13</v>
       </c>
       <c r="C38" t="n">
-        <v>98.0007939753796</v>
+        <v>97.99968413185528</v>
       </c>
     </row>
     <row r="39">
@@ -5077,7 +5077,7 @@
         <v>19</v>
       </c>
       <c r="C39" t="n">
-        <v>190.49830362384802</v>
+        <v>190.49614626062578</v>
       </c>
     </row>
     <row r="40">
@@ -5088,7 +5088,7 @@
         <v>21</v>
       </c>
       <c r="C40" t="n">
-        <v>1.9561204534422476</v>
+        <v>1.956226689132941</v>
       </c>
     </row>
     <row r="41">
@@ -5126,7 +5126,7 @@
         <v>21</v>
       </c>
       <c r="C44" t="n">
-        <v>2.3104443884818426</v>
+        <v>2.310604835922975</v>
       </c>
     </row>
     <row r="45">
@@ -5164,7 +5164,7 @@
         <v>21</v>
       </c>
       <c r="C48" t="n">
-        <v>1.7868261336784537</v>
+        <v>1.7869224706469464</v>
       </c>
     </row>
     <row r="49">
@@ -5202,7 +5202,7 @@
         <v>21</v>
       </c>
       <c r="C52" t="n">
-        <v>0.21317386632154645</v>
+        <v>0.21307752935305369</v>
       </c>
     </row>
     <row r="53">
@@ -5240,7 +5240,7 @@
         <v>21</v>
       </c>
       <c r="C56" t="n">
-        <v>-0.31044438848184286</v>
+        <v>-0.31060483592297494</v>
       </c>
     </row>
     <row r="57">
@@ -5256,7 +5256,7 @@
         <v>13</v>
       </c>
       <c r="C58" t="n">
-        <v>75.91108859634984</v>
+        <v>75.91022891525253</v>
       </c>
     </row>
     <row r="59">
@@ -5267,7 +5267,7 @@
         <v>19</v>
       </c>
       <c r="C59" t="n">
-        <v>147.55935148318542</v>
+        <v>147.5576803968192</v>
       </c>
     </row>
     <row r="60">
@@ -5278,7 +5278,7 @@
         <v>21</v>
       </c>
       <c r="C60" t="n">
-        <v>0.04387954655775239</v>
+        <v>0.043773310867059045</v>
       </c>
     </row>
     <row r="61">
@@ -5304,7 +5304,7 @@
         <v>13</v>
       </c>
       <c r="C64" t="n">
-        <v>46.80878249417138</v>
+        <v>46.80825239209747</v>
       </c>
     </row>
     <row r="65">
@@ -5315,7 +5315,7 @@
         <v>19</v>
       </c>
       <c r="C65" t="n">
-        <v>90.98899404914523</v>
+        <v>90.98796361314842</v>
       </c>
     </row>
     <row r="66">
@@ -5331,7 +5331,7 @@
         <v>13</v>
       </c>
       <c r="C67" t="n">
-        <v>66.19761504142949</v>
+        <v>66.1968653638871</v>
       </c>
     </row>
     <row r="68">
@@ -5342,7 +5342,7 @@
         <v>19</v>
       </c>
       <c r="C68" t="n">
-        <v>128.67786941098603</v>
+        <v>128.67641215442416</v>
       </c>
     </row>
     <row r="69">
@@ -5369,7 +5369,7 @@
         <v>13</v>
       </c>
       <c r="C71" t="n">
-        <v>82.12240377028485</v>
+        <v>82.12147374702351</v>
       </c>
     </row>
     <row r="72">
@@ -5380,7 +5380,7 @@
         <v>19</v>
       </c>
       <c r="C72" t="n">
-        <v>159.63318227485175</v>
+        <v>159.63137445425735</v>
       </c>
     </row>
     <row r="73">
@@ -5417,7 +5417,7 @@
         <v>13</v>
       </c>
       <c r="C77" t="n">
-        <v>66.19761504142949</v>
+        <v>66.1968653638871</v>
       </c>
     </row>
     <row r="78">
@@ -5428,7 +5428,7 @@
         <v>19</v>
       </c>
       <c r="C78" t="n">
-        <v>128.67786941098603</v>
+        <v>128.67641215442416</v>
       </c>
     </row>
     <row r="79">
@@ -5439,7 +5439,7 @@
         <v>21</v>
       </c>
       <c r="C79" t="n">
-        <v>1.463521900486762</v>
+        <v>1.4635734029612382</v>
       </c>
     </row>
     <row r="80">
@@ -5455,7 +5455,7 @@
         <v>13</v>
       </c>
       <c r="C81" t="n">
-        <v>82.12240377028485</v>
+        <v>82.12147374702351</v>
       </c>
     </row>
     <row r="82">
@@ -5466,7 +5466,7 @@
         <v>19</v>
       </c>
       <c r="C82" t="n">
-        <v>159.63318227485175</v>
+        <v>159.63137445425735</v>
       </c>
     </row>
     <row r="83">
@@ -5477,7 +5477,7 @@
         <v>21</v>
       </c>
       <c r="C83" t="n">
-        <v>1.463521900486762</v>
+        <v>1.4635734029612382</v>
       </c>
     </row>
   </sheetData>
